--- a/biology/Zoologie/Conus_queenslandis/Conus_queenslandis.xlsx
+++ b/biology/Zoologie/Conus_queenslandis/Conus_queenslandis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus queenslandis est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille varie entre 60 mm et 110 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine est présente au large du Vietnam, de la Nouvelle-Calédonie et du Queensland, en Australie.
 </t>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus queenslandis a été décrite pour la première fois en 1984 par le malacologiste américain António José da Motta (d)[1] dans « La Conchiglia »[2],[3].
-Synonymes
-Conus (Splinoconus) queenslandis da Motta, 1984 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus queenslandis a été décrite pour la première fois en 1984 par le malacologiste américain António José da Motta (d) dans « La Conchiglia »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_queenslandis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_queenslandis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Splinoconus) queenslandis da Motta, 1984 · appellation alternative
 Conus tribblei queenslandis da Motta, 1984 · non accepté
 Kioconus tribblei queenslandis (da Motta, 1984) · non accepté</t>
         </is>
